--- a/results/new_results/logistic_params_revised.xlsx
+++ b/results/new_results/logistic_params_revised.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/Fleeting_modeling_SAO/results/new_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26A560-8881-B04E-BD27-5779F29BC5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A1AAF-A2B2-434A-91AF-59320CBBE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36780" yWindow="500" windowWidth="36780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36800" yWindow="500" windowWidth="36780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$61</definedName>
@@ -71,7 +72,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +82,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,12 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,11 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,17 +511,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>2.5813797198328929</v>
-      </c>
-      <c r="D6">
-        <v>2.9333606718655498</v>
+      <c r="C6" s="3">
+        <f ca="1">C5</f>
+        <v>5.1048559443022992</v>
+      </c>
+      <c r="D6" s="3">
+        <f ca="1">D5</f>
+        <v>6.2288677151238154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -560,31 +569,35 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>2.2760971393704912</v>
-      </c>
-      <c r="D10">
-        <v>7.6498101540377252</v>
+      <c r="C10" s="3">
+        <f ca="1">C9</f>
+        <v>8.0528174499439924</v>
+      </c>
+      <c r="D10" s="3">
+        <f ca="1">D9</f>
+        <v>9.0819795660254741</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>18.714973875118549</v>
-      </c>
-      <c r="D11">
-        <v>6.75</v>
+      <c r="C11" s="3">
+        <f ca="1">C10</f>
+        <v>8.0528174499439924</v>
+      </c>
+      <c r="D11" s="3">
+        <f ca="1">D10</f>
+        <v>9.0819795660254741</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,7 +628,7 @@
         <v>5.3000028161710073</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -629,7 +642,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -643,7 +656,7 @@
         <v>8.0891584938694852</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -657,7 +670,7 @@
         <v>4.3456102144186897</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -671,7 +684,7 @@
         <v>7.3134940047152712</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -679,13 +692,15 @@
         <v>2012</v>
       </c>
       <c r="C18" s="2">
+        <f ca="1">C17</f>
         <v>21.55912799211724</v>
       </c>
       <c r="D18" s="2">
+        <f ca="1">D17</f>
         <v>7.3134940047152712</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -699,7 +714,7 @@
         <v>8.5714094734409922</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -713,7 +728,7 @@
         <v>8.7426127534247797</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -727,7 +742,7 @@
         <v>7.3579441926528277</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -741,7 +756,7 @@
         <v>7.3579441926528277</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -755,7 +770,7 @@
         <v>7.3579441926528277</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -769,7 +784,7 @@
         <v>5.4049952712497173</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -783,7 +798,7 @@
         <v>5.252078243172531</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -797,7 +812,7 @@
         <v>4.2420392002025071</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -811,7 +826,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -825,7 +840,7 @@
         <v>5.295683230552199</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -839,7 +854,7 @@
         <v>6.8576419952312424</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -847,13 +862,15 @@
         <v>2012</v>
       </c>
       <c r="C30" s="2">
-        <v>70</v>
+        <f ca="1">C29</f>
+        <v>5.7203247699093778</v>
       </c>
       <c r="D30" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <f ca="1">D29</f>
+        <v>6.8576419952312424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -867,7 +884,7 @@
         <v>8.0850127193338075</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -881,7 +898,7 @@
         <v>7.398770572992972</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -895,21 +912,23 @@
         <v>7.0994684113511868</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>2016</v>
       </c>
-      <c r="C34">
-        <v>0.41410788776726443</v>
-      </c>
-      <c r="D34">
-        <v>1.478936630385155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <f ca="1">C33</f>
+        <v>12.89062497010879</v>
+      </c>
+      <c r="D34" s="3">
+        <f ca="1">D33</f>
+        <v>7.0994684113511868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -923,7 +942,7 @@
         <v>4.8935883042308506</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -937,7 +956,7 @@
         <v>4.9992995905276247</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -951,7 +970,7 @@
         <v>3.84464530057486</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -965,7 +984,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -979,7 +998,7 @@
         <v>4.2736058321218628</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1012,7 @@
         <v>4.2736058321218628</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1040,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>11.0890313265058</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1082,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1096,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1124,7 @@
         <v>5.4183202152874621</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1138,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1152,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1166,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>6.7761409887644897</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>6.8520192521249106</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1208,7 @@
         <v>6.8520192521249106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1222,7 @@
         <v>7.4850599829366828</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>7.0006599583481552</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1231,21 +1250,23 @@
         <v>7.0572952999148164</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>2016</v>
       </c>
-      <c r="C58">
-        <v>6.9314718055991626</v>
-      </c>
-      <c r="D58">
-        <v>5.375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
+        <f ca="1">C57</f>
+        <v>13.325021784873</v>
+      </c>
+      <c r="D58" s="3">
+        <f ca="1">D57</f>
+        <v>7.0572952999148164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1280,7 @@
         <v>5.6667541621944668</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>4.8178229523209533</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1288,13 +1309,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D61" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Light-duty truck"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D61" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71539508-6E54-0645-9F5B-4CDBDB3847AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>